--- a/500all/speech_level/speeches_CHRG-114hhrg98693.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98693.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400048</t>
   </si>
   <si>
-    <t>Corrine Brown</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Brown. Yes, sir.    The Chairman. Ms. Brown, you are recognized.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Halliday</t>
-  </si>
-  <si>
     <t>the Washington, DC., area to the Philadelphia area. The payments included about $33,000 paid to Ms. Rubens, who held that position, primarily to reimburse her for lodging, meals, tips, and dry cleaning expenses. Payments to other entities totaled approximately $241,000 and included about $212,000 to the home sale contractor, $16,000 to the company that moved and stored Ms. Rubens' goods, and about $13,000 in service fees that went to VA's Financial Service Center and the VA Technology Acquisition Center.    Ms. Rubens did retain her pay despite the decrease in job responsibilities. But according to the federal regulations, the SES rate of basic pay for a career senior executive may only be reduced if the senior executive has less than a fully successful annual summary rating or has failed to meet the performance requirements of a critical element. From fiscal year 2009 to the time of her reassignment the Deputy Under Secretary for Field Operations was rated better than fully successful on all performance appraisals. Therefore we concluded that all critical elements were met. Based on applicable federal regulations we determined VA could not reduce the annual salary upon reassignment despite the decrease in the scope of responsibilities.    We also conducted a limited assessment of VBA's use of the PCS relocation program. We determined VBA's reassignments of seven general schedule GS-15 employees who were promoted to SES, and another 15 SES employees who were moved to different SES positions. We determined that VBA management used reassignments through the PCS program as a way to increase SES pay.    It is important to note from fiscal year 2010 to 2013 the U.S. Office of Personnel Management guidelines precluded all SES employees from receiving annual pay increases. Further, in 2012 the then VA Secretary determined no VBA executive would receive performance awards based on concerns over excessive backlog of veterans disability claims.    Twenty-one of 23 reassignments included salary increases. These VBA reassignments resulted in annual salary increases totaling about $321,000, which averaged about $15,300 per individual. We identified concerns with the salary increases because they did not seem to consistently reflect changes in the position's scope of responsibility.    We also found VBA paid seven employees relocation incentives when they moved to new positions. The seven relocation incentives totaled $140,000. We determined that VBA did not properly justify these incentives. Five relocation expenses were not justified because job vacancies were not announced, or the positions were filled before candidates who applied were considered. The two other incentives were not timely justified as justifications were signed months after the job announcements were posted. The then Under Secretary for Benefits and the then VA Chief of Staff approved the VBA's relocation incentive justification and payments.    VBA paid relocation expenses for 20 of the 23 reassignments, which included AVO related expenses for 11 of the moves. Specifically VBA spent about $1.3 million on relocation expenses for these moves. While these reassignments resulted in significant cost to VA, these expenses were allowable under the federal relocation program. VBA also spent a total of $1.8 million for the 23 reassignments we reviewed. While we did not question the need to reassign some staff to manage a national network of VAROs, we concluded VBA inappropriately used VA's PCS relocation program for the benefit of its SES workforce.    In conclusion our findings demonstrate the need to strengthen controls and oversight in order to improve financial stewardship in the program and we are pleased to see the department is reviewing the evidence and taking this report seriously. But at this point I do not have specifics as to how they are going to implement the 12 recommendations. They did give me implementation dates that spanned October 31 through December 31 and I expect more detail at that time.    This concludes my statement and I will answer any questions.    [The prepared statement of Linda Halliday appears in the Appendix]    The Chairman. Thank you very much. All of my questions this morning for the IG are based on the evidence used to complete their report. Ms. Halliday, at the hearing on April 22nd Mr. Pummel testified that the AVO program was necessary to fill the Philadelphia RO position because it was, quote, tough to fill. In your opinion was the AVO used in Ms. Rubens' case because it was tough to fill?    Ms. Halliday. No. I believe that the Philadelphia VARO offered significant management challenges to whoever took over the leadership. But you have to advertise positions and there were candidates. I think our report says there were approximately 120, but do not quote me on the number.    The Chairman. At the April--did you find it?</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t>412191</t>
   </si>
   <si>
-    <t>Doug Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman. I appreciate your leadership and the ranking member's leadership and questions. We really need to get to the bottom of this and I think there have been some excellent questions so I will just build on what has already been asked. And thank you for the work that you did.    To follow on what Ranking Member Brown just asked you, it looks to me like there is some abuse going on. Was this unique to the VA or a subset within VA? Or is this potential out there for the entire government, and maybe there is abuse in other departments?</t>
   </si>
   <si>
@@ -154,9 +145,6 @@
     <t>412520</t>
   </si>
   <si>
-    <t>Mark Takano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman. Following on Mr. Lamborn's questioning, your report states that according to Mr. Pummel, quote, the VA Chief of Staff at the time said that an SES employee's salary could be increased as long as the executive was moving to a different location, end quote, despite OPM guidelines preventing SES employees from annual pay increases and establishing a salary cap. Was the VA Chief of Staff correct? I understand that for many other transfers you examined, employee responsibility decreased, which was not reflected in their salaries. And it is essentially a similar question that Mr. Lamborn asked. So was the Chief of Staff's statement correct?</t>
   </si>
   <si>
@@ -223,9 +211,6 @@
     <t>412310</t>
   </si>
   <si>
-    <t>David P. Roe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Roe. I thank the chairman. I am going to bring us down to, Ms. Halliday, thank you again for being here and providing this information for us. One of the things I think you see across the country is a loss in faith of government, and I think this is a poster child for it. You have a situation where we have our social security recipients are getting no increase this year at all. I am going to tell you about a couple of guys I know back home.    One is Bud Pate. He is a retired Baptist preacher, a Marine, lost his arm in Vietnam. Randy Kingston, both of these guys are friends of mine. Randy is a paraplegic, a young man, had not married, became a paraplegic after, in Vietnam during an explosion, a battle. And this young woman married him, who knew him ahead of time, knew him when he was whole, but married him, has been faithful together all these years. And these veterans that we see out there are having to struggle to get their benefits of a few hundred dollars or a few thousand dollars a month. And then I see things where we are paying somebody $33,000 to drive up the road 140 miles and live in a hotel for a few days until they can get a house. If you paid 55 cents a mile that is a $77 trip, not a $33,000 trip. And if you eat at the Four Seasons every night, I do not see how you can spend $33,000. And that is not what average people do out there.    When average people like me, that go out and work for themselves for 30-something years, and I do less, next year I get paid less. That is what happens in the real world. And that is not what is happening here. And I go home and see these injured and disabled veterans. And then I come up here and hear where these senior officials, it seems like they have manipulated a system that they know how it works to, the VA has shifted people around. When we said, no, you cannot raise people's salaries during this particular time so we can sort all this out, but they figured out how to do it. And that sort of cynicism is really pervasive, I think, when you go home and try to explain.    And listening to your testimony, which has been extremely compelling to me, I just want to get that on the record. And I think we have a lost trust. And so I understand this program, two people come in and appraise your house. I looked up, while we are doing this, on the web. The average time is about 60 days on the market around here for a home. If I sell my home here, a private citizen does, they just got to wait until they sell their home. If it is 60 days or if it is 160 days. They have got to wait, just like you probably do if you sell your house here. So the way I understand it is this program they have got is you go out and get your house evaluated at $800,000, or whatever it is, you pay this, basically this contractor, 27.5 percent, that is $200,000-something that they got. They can discount that house $100,000 and sell it quickly and make $125,000 without blinking an eye. I mean, am I correct on that? Is that how they do it?</t>
   </si>
   <si>
@@ -253,9 +238,6 @@
     <t>412516</t>
   </si>
   <si>
-    <t>Julia Brownley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Brownley. Thank you, Mr. Chairman. And thank you, Ms. Halliday, for your report this morning. According to table seven on page 30 of your report, the incoming Los Angeles Regional Office Director received a relocation incentive of $20,000. As I understand it, relocation incentives are only supposed to be paid in cases where qualified applicants cannot be found or the position is hard to fill. However, and your report states that 168 applicants, five of whom were considered best qualified, had applied for the Los Angeles position. So according to the VBA policy should a relocation incentive have been offered in this case?</t>
   </si>
   <si>
@@ -283,9 +265,6 @@
     <t>412436</t>
   </si>
   <si>
-    <t>Dan Benishek</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you, Mr. Chairman. Thank you, Ms. Halliday, for being here today. Can you elaborate? Is there any role that Ms. Hickey had in any of this that you are aware of? Was she, was there communication between her and Ms. Rubens?</t>
   </si>
   <si>
@@ -352,9 +331,6 @@
     <t>412318</t>
   </si>
   <si>
-    <t>Dina Titus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Titus. Thank you, Mr. Chairman. Ms. Halliday, thank you. My understanding about the report is that it is limited to SES employees but it includes a few GS employees who, 15 who were moving up. And this is damning enough. But I am concerned that this practice of moving people into jobs with less responsibility but the same amount of money is occurring at other levels as well. And I will just give you an example.    Ed Russell, who was previously the Director of the Reno Regional Office for VBA, which was one of the worst in the country, was put on paid leave. He stayed on that administrative leave for almost a year. Then they could not, or would not, get rid of him, so a brand new position was created in Washington. They called him a senior advisor in the Office of Field Operations, but he teleworked from Reno. He did not even move back to Washington. Now I cannot find out for sure what his salary was, but I doubt if it went down. Now the responsibility that he had as senior advisor while teleworking from Reno had to have been less than being the Director of the Regional Office. So I am concerned that as VA pushes this initiative called My VA if it is full of just patronage and cronyism, that is totally contrary to the image that it is trying to create and its efforts to restore faith in VA. And I wonder if you have any sense that this is more widespread than just the Reno office? Or if you would be willing to look into it if that would be appropriate or even possible?</t>
   </si>
   <si>
@@ -373,9 +349,6 @@
     <t>412538</t>
   </si>
   <si>
-    <t>Jackie Walorski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Walorski. Thank you, Mr. Chairman. And thank you, Ms. Halliday, for being here yet again.    I guess I am, I would call this report, this IG report a crisis in confidence again with the VA and with some of these senior level executives. And I guess I echo back to what Representative Roe said. The discrepancy that is happening in this country between these high level VA executives and the veterans that are in the districts that we all sit in here and represent today, to me it is reprehensible. And we are looking at yet another crisis in confidence.    I have been here, I am only in my third year. I am one of the youngest members on this panel. You have been here since I have been here. When you look at yet another, yet another one of these examples of egregious spending, benefits that people in the private sector do not even have, people in my district cannot even relate to these issues of paying people to move, at the exorbitant amount of money. Do you look at this at any point, as the Inspector General, and say there is an issue with confidence here with these senior executives?    And I guess to my other colleagues' point, you know whether this is nationwide or not, I would have to suspect based on just the data that we have seen in the three years we have been here, this is just the same old, same old, status quo behavior. There has not been a whole lot of shake down when it comes to what kind of federal benefits are given to these senior executives in the VA. Do you see a confidence issue here as you look at these, at the tangible data that you have?</t>
   </si>
   <si>
@@ -388,9 +361,6 @@
     <t>412214</t>
   </si>
   <si>
-    <t>Timothy J. Walz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Mr. Chairman. Commander Barnett, I would like to thank you for being here and let you know your team here in Washington is doing a fabulous job. And we certainly appreciate it. And my 2016 dues are on the way, so that email you sent. So you do a good job of reminding me, so we will get them.    But Ms. Halliday, nice to see you again as always. And I appreciate your time. And I want to thank the chairman and the ranking member for I think once again elevating this committee above the partisan politics, for bringing it to the point of trying to improve the care for veterans.    I also think it is noted that together we are doing what we are supposed to do. Reports are being done. We are doing our oversight. Changes are being made. An Under Secretary is no longer an Under Secretary. And I certainly cannot say if it was in direct result of this, but I think people can draw their conclusions. I also would say that Deputy Secretary Gibson's willingness to come here at every case, and his volunteering to come here, and I think the chairman was very clear and sufficiently stated why that was probably not the right case here because he has got a job to do. And I am grateful that I think my colleagues here have both, did the accountability piece, the subpoenas were correct, we have created space, we let Deputy Secretary Gibson do his work, and we will have some answers by November 2nd.    So I kind of want to, this is taking care of it. There are some good questions being brought up. The ranking member brought up a great point about across the board on this issue, which I think is very important to look at. I want to ask more specifically about the role of the IG and this committee stepping up to do its oversight responsibility.    I do think it should be noted we are approaching 700 days without someone in the top job at the VA Inspector General. That in itself is inexplicable to me. With that being said, the broader issue of the IG, the IG's role and this committee's role of getting aggressive to do what we are doing today, and I am proud of that, I want to ask a couple of specifics on this. How many investigations has your office conducted on personnel issues at VBA? That is an off the--to get back to us? Or----</t>
   </si>
   <si>
@@ -442,9 +412,6 @@
     <t>412271</t>
   </si>
   <si>
-    <t>Mike Coffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Coffman. Yes.</t>
   </si>
   <si>
@@ -467,9 +434,6 @@
   </si>
   <si>
     <t>412651</t>
-  </si>
-  <si>
-    <t>Ryan A. Costello</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Mr. Chairman. At the outset I would like to pick up on the comments that my colleagues Mr. Coffman and Ms. Titus made relating to some of the gaming of compensation within the VA. It almost seems like friends are rewarding friends rather than focusing on reforming the VA. And so I would just reiterate that I think that we really need to get to the bottom of how pervasive that may be in the VA. But that is something obviously I am sure all of us as members will discuss a little bit more.    I also want to commend you for your continued work in providing accountability and shining a light on the abuses there. Typically this committee will have witnesses before them that we can ask questions who either were culpable or who can actually speak to how they are either reforming the challenges or what mistakes were made along the way. But today we do not have that, we just have you. So I do not, I am sure it is a little bit odd that you are here delivering bad news, we are as outraged as anyone, but we do not have anyone really to direct that outrage to.    Let me start with a couple of really fact specific questions just for the record. First, with respect to Philadelphia and Ms. Rubens, as well as Ms. Graves and St. Paul, any evidence that family considerations were part of the reason why they wanted to relocate to those facilities?</t>
@@ -916,11 +880,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -942,11 +904,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -966,13 +926,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -992,13 +950,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1018,13 +974,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1044,13 +998,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1070,13 +1022,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1096,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1122,13 +1070,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1148,13 +1094,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1174,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1200,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1228,11 +1168,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1252,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1280,11 +1216,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1304,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1330,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1356,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1382,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1408,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1434,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1460,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1486,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1512,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1538,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1564,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1590,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1616,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1642,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1668,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1694,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
         <v>45</v>
-      </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1720,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1746,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1772,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1798,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1824,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1850,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1876,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1902,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1928,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1954,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1980,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2006,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2032,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2058,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
-      </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2084,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2110,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2136,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2162,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2188,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
-      </c>
-      <c r="G51" t="s">
-        <v>69</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2214,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2240,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" t="s">
-        <v>69</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2266,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2292,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
         <v>69</v>
-      </c>
-      <c r="H55" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2318,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2344,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" t="s">
-        <v>69</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2370,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2396,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" t="s">
-        <v>79</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2422,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2448,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" t="s">
-        <v>79</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2474,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2500,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
         <v>78</v>
-      </c>
-      <c r="G63" t="s">
-        <v>79</v>
-      </c>
-      <c r="H63" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2526,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2552,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" t="s">
-        <v>79</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2578,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2604,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
-      </c>
-      <c r="G67" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2630,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2656,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2682,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2708,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
-      </c>
-      <c r="G71" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2734,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2760,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
-      </c>
-      <c r="G73" t="s">
+        <v>82</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
         <v>89</v>
-      </c>
-      <c r="H73" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2786,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2812,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2838,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2864,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>88</v>
-      </c>
-      <c r="G77" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2890,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2916,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2942,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2968,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
-      </c>
-      <c r="G81" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2994,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3020,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>88</v>
-      </c>
-      <c r="G83" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3046,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3072,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>88</v>
-      </c>
-      <c r="G85" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3098,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3124,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>88</v>
-      </c>
-      <c r="G87" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3150,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>111</v>
-      </c>
-      <c r="G88" t="s">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3176,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3202,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>111</v>
-      </c>
-      <c r="G90" t="s">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3228,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3254,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>111</v>
-      </c>
-      <c r="G92" t="s">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3280,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>118</v>
-      </c>
-      <c r="G93" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3306,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3332,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
-      </c>
-      <c r="G95" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3358,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>123</v>
-      </c>
-      <c r="G96" t="s">
-        <v>124</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3384,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3410,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>123</v>
-      </c>
-      <c r="G98" t="s">
-        <v>124</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3436,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3462,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>123</v>
-      </c>
-      <c r="G100" t="s">
-        <v>124</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3488,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3514,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>123</v>
-      </c>
-      <c r="G102" t="s">
-        <v>124</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3540,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3566,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
+        <v>114</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
         <v>123</v>
-      </c>
-      <c r="G104" t="s">
-        <v>124</v>
-      </c>
-      <c r="H104" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3592,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
-      </c>
-      <c r="G105" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3618,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>123</v>
-      </c>
-      <c r="G106" t="s">
-        <v>124</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3644,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3670,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>123</v>
-      </c>
-      <c r="G108" t="s">
-        <v>124</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3696,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3722,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>123</v>
-      </c>
-      <c r="G110" t="s">
-        <v>124</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3748,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3774,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>141</v>
-      </c>
-      <c r="G112" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3800,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
-      </c>
-      <c r="G113" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3826,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>141</v>
-      </c>
-      <c r="G114" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3852,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
-      </c>
-      <c r="G115" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3878,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>141</v>
-      </c>
-      <c r="G116" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3904,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>15</v>
-      </c>
-      <c r="G117" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3930,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>141</v>
-      </c>
-      <c r="G118" t="s">
-        <v>142</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3956,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>150</v>
-      </c>
-      <c r="G119" t="s">
-        <v>151</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3982,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4008,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>150</v>
-      </c>
-      <c r="G121" t="s">
-        <v>151</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4034,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4060,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>150</v>
-      </c>
-      <c r="G123" t="s">
-        <v>151</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4086,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>15</v>
-      </c>
-      <c r="G124" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4112,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>150</v>
-      </c>
-      <c r="G125" t="s">
-        <v>151</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4138,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>15</v>
-      </c>
-      <c r="G126" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4164,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>150</v>
-      </c>
-      <c r="G127" t="s">
-        <v>151</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4190,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4216,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
+        <v>139</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
         <v>150</v>
-      </c>
-      <c r="G129" t="s">
-        <v>151</v>
-      </c>
-      <c r="H129" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4242,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>15</v>
-      </c>
-      <c r="G130" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4268,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>150</v>
-      </c>
-      <c r="G131" t="s">
-        <v>151</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4294,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>15</v>
-      </c>
-      <c r="G132" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4320,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>150</v>
-      </c>
-      <c r="G133" t="s">
-        <v>151</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4348,11 +4048,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98693.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98693.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400048</t>
   </si>
   <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Corrine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Brown. Yes, sir.    The Chairman. Ms. Brown, you are recognized.</t>
   </si>
   <si>
@@ -61,6 +70,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Halliday</t>
+  </si>
+  <si>
     <t>the Washington, DC., area to the Philadelphia area. The payments included about $33,000 paid to Ms. Rubens, who held that position, primarily to reimburse her for lodging, meals, tips, and dry cleaning expenses. Payments to other entities totaled approximately $241,000 and included about $212,000 to the home sale contractor, $16,000 to the company that moved and stored Ms. Rubens' goods, and about $13,000 in service fees that went to VA's Financial Service Center and the VA Technology Acquisition Center.    Ms. Rubens did retain her pay despite the decrease in job responsibilities. But according to the federal regulations, the SES rate of basic pay for a career senior executive may only be reduced if the senior executive has less than a fully successful annual summary rating or has failed to meet the performance requirements of a critical element. From fiscal year 2009 to the time of her reassignment the Deputy Under Secretary for Field Operations was rated better than fully successful on all performance appraisals. Therefore we concluded that all critical elements were met. Based on applicable federal regulations we determined VA could not reduce the annual salary upon reassignment despite the decrease in the scope of responsibilities.    We also conducted a limited assessment of VBA's use of the PCS relocation program. We determined VBA's reassignments of seven general schedule GS-15 employees who were promoted to SES, and another 15 SES employees who were moved to different SES positions. We determined that VBA management used reassignments through the PCS program as a way to increase SES pay.    It is important to note from fiscal year 2010 to 2013 the U.S. Office of Personnel Management guidelines precluded all SES employees from receiving annual pay increases. Further, in 2012 the then VA Secretary determined no VBA executive would receive performance awards based on concerns over excessive backlog of veterans disability claims.    Twenty-one of 23 reassignments included salary increases. These VBA reassignments resulted in annual salary increases totaling about $321,000, which averaged about $15,300 per individual. We identified concerns with the salary increases because they did not seem to consistently reflect changes in the position's scope of responsibility.    We also found VBA paid seven employees relocation incentives when they moved to new positions. The seven relocation incentives totaled $140,000. We determined that VBA did not properly justify these incentives. Five relocation expenses were not justified because job vacancies were not announced, or the positions were filled before candidates who applied were considered. The two other incentives were not timely justified as justifications were signed months after the job announcements were posted. The then Under Secretary for Benefits and the then VA Chief of Staff approved the VBA's relocation incentive justification and payments.    VBA paid relocation expenses for 20 of the 23 reassignments, which included AVO related expenses for 11 of the moves. Specifically VBA spent about $1.3 million on relocation expenses for these moves. While these reassignments resulted in significant cost to VA, these expenses were allowable under the federal relocation program. VBA also spent a total of $1.8 million for the 23 reassignments we reviewed. While we did not question the need to reassign some staff to manage a national network of VAROs, we concluded VBA inappropriately used VA's PCS relocation program for the benefit of its SES workforce.    In conclusion our findings demonstrate the need to strengthen controls and oversight in order to improve financial stewardship in the program and we are pleased to see the department is reviewing the evidence and taking this report seriously. But at this point I do not have specifics as to how they are going to implement the 12 recommendations. They did give me implementation dates that spanned October 31 through December 31 and I expect more detail at that time.    This concludes my statement and I will answer any questions.    [The prepared statement of Linda Halliday appears in the Appendix]    The Chairman. Thank you very much. All of my questions this morning for the IG are based on the evidence used to complete their report. Ms. Halliday, at the hearing on April 22nd Mr. Pummel testified that the AVO program was necessary to fill the Philadelphia RO position because it was, quote, tough to fill. In your opinion was the AVO used in Ms. Rubens' case because it was tough to fill?    Ms. Halliday. No. I believe that the Philadelphia VARO offered significant management challenges to whoever took over the leadership. But you have to advertise positions and there were candidates. I think our report says there were approximately 120, but do not quote me on the number.    The Chairman. At the April--did you find it?</t>
   </si>
   <si>
@@ -103,6 +115,12 @@
     <t>412191</t>
   </si>
   <si>
+    <t>Lamborn</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman. I appreciate your leadership and the ranking member's leadership and questions. We really need to get to the bottom of this and I think there have been some excellent questions so I will just build on what has already been asked. And thank you for the work that you did.    To follow on what Ranking Member Brown just asked you, it looks to me like there is some abuse going on. Was this unique to the VA or a subset within VA? Or is this potential out there for the entire government, and maybe there is abuse in other departments?</t>
   </si>
   <si>
@@ -145,6 +163,12 @@
     <t>412520</t>
   </si>
   <si>
+    <t>Takano</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman. Following on Mr. Lamborn's questioning, your report states that according to Mr. Pummel, quote, the VA Chief of Staff at the time said that an SES employee's salary could be increased as long as the executive was moving to a different location, end quote, despite OPM guidelines preventing SES employees from annual pay increases and establishing a salary cap. Was the VA Chief of Staff correct? I understand that for many other transfers you examined, employee responsibility decreased, which was not reflected in their salaries. And it is essentially a similar question that Mr. Lamborn asked. So was the Chief of Staff's statement correct?</t>
   </si>
   <si>
@@ -211,6 +235,12 @@
     <t>412310</t>
   </si>
   <si>
+    <t>Roe</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Roe. I thank the chairman. I am going to bring us down to, Ms. Halliday, thank you again for being here and providing this information for us. One of the things I think you see across the country is a loss in faith of government, and I think this is a poster child for it. You have a situation where we have our social security recipients are getting no increase this year at all. I am going to tell you about a couple of guys I know back home.    One is Bud Pate. He is a retired Baptist preacher, a Marine, lost his arm in Vietnam. Randy Kingston, both of these guys are friends of mine. Randy is a paraplegic, a young man, had not married, became a paraplegic after, in Vietnam during an explosion, a battle. And this young woman married him, who knew him ahead of time, knew him when he was whole, but married him, has been faithful together all these years. And these veterans that we see out there are having to struggle to get their benefits of a few hundred dollars or a few thousand dollars a month. And then I see things where we are paying somebody $33,000 to drive up the road 140 miles and live in a hotel for a few days until they can get a house. If you paid 55 cents a mile that is a $77 trip, not a $33,000 trip. And if you eat at the Four Seasons every night, I do not see how you can spend $33,000. And that is not what average people do out there.    When average people like me, that go out and work for themselves for 30-something years, and I do less, next year I get paid less. That is what happens in the real world. And that is not what is happening here. And I go home and see these injured and disabled veterans. And then I come up here and hear where these senior officials, it seems like they have manipulated a system that they know how it works to, the VA has shifted people around. When we said, no, you cannot raise people's salaries during this particular time so we can sort all this out, but they figured out how to do it. And that sort of cynicism is really pervasive, I think, when you go home and try to explain.    And listening to your testimony, which has been extremely compelling to me, I just want to get that on the record. And I think we have a lost trust. And so I understand this program, two people come in and appraise your house. I looked up, while we are doing this, on the web. The average time is about 60 days on the market around here for a home. If I sell my home here, a private citizen does, they just got to wait until they sell their home. If it is 60 days or if it is 160 days. They have got to wait, just like you probably do if you sell your house here. So the way I understand it is this program they have got is you go out and get your house evaluated at $800,000, or whatever it is, you pay this, basically this contractor, 27.5 percent, that is $200,000-something that they got. They can discount that house $100,000 and sell it quickly and make $125,000 without blinking an eye. I mean, am I correct on that? Is that how they do it?</t>
   </si>
   <si>
@@ -238,6 +268,12 @@
     <t>412516</t>
   </si>
   <si>
+    <t>Brownley</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Brownley. Thank you, Mr. Chairman. And thank you, Ms. Halliday, for your report this morning. According to table seven on page 30 of your report, the incoming Los Angeles Regional Office Director received a relocation incentive of $20,000. As I understand it, relocation incentives are only supposed to be paid in cases where qualified applicants cannot be found or the position is hard to fill. However, and your report states that 168 applicants, five of whom were considered best qualified, had applied for the Los Angeles position. So according to the VBA policy should a relocation incentive have been offered in this case?</t>
   </si>
   <si>
@@ -265,6 +301,12 @@
     <t>412436</t>
   </si>
   <si>
+    <t>Benishek</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you, Mr. Chairman. Thank you, Ms. Halliday, for being here today. Can you elaborate? Is there any role that Ms. Hickey had in any of this that you are aware of? Was she, was there communication between her and Ms. Rubens?</t>
   </si>
   <si>
@@ -331,6 +373,12 @@
     <t>412318</t>
   </si>
   <si>
+    <t>Titus</t>
+  </si>
+  <si>
+    <t>Dina</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Titus. Thank you, Mr. Chairman. Ms. Halliday, thank you. My understanding about the report is that it is limited to SES employees but it includes a few GS employees who, 15 who were moving up. And this is damning enough. But I am concerned that this practice of moving people into jobs with less responsibility but the same amount of money is occurring at other levels as well. And I will just give you an example.    Ed Russell, who was previously the Director of the Reno Regional Office for VBA, which was one of the worst in the country, was put on paid leave. He stayed on that administrative leave for almost a year. Then they could not, or would not, get rid of him, so a brand new position was created in Washington. They called him a senior advisor in the Office of Field Operations, but he teleworked from Reno. He did not even move back to Washington. Now I cannot find out for sure what his salary was, but I doubt if it went down. Now the responsibility that he had as senior advisor while teleworking from Reno had to have been less than being the Director of the Regional Office. So I am concerned that as VA pushes this initiative called My VA if it is full of just patronage and cronyism, that is totally contrary to the image that it is trying to create and its efforts to restore faith in VA. And I wonder if you have any sense that this is more widespread than just the Reno office? Or if you would be willing to look into it if that would be appropriate or even possible?</t>
   </si>
   <si>
@@ -349,6 +397,12 @@
     <t>412538</t>
   </si>
   <si>
+    <t>Walorski</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Walorski. Thank you, Mr. Chairman. And thank you, Ms. Halliday, for being here yet again.    I guess I am, I would call this report, this IG report a crisis in confidence again with the VA and with some of these senior level executives. And I guess I echo back to what Representative Roe said. The discrepancy that is happening in this country between these high level VA executives and the veterans that are in the districts that we all sit in here and represent today, to me it is reprehensible. And we are looking at yet another crisis in confidence.    I have been here, I am only in my third year. I am one of the youngest members on this panel. You have been here since I have been here. When you look at yet another, yet another one of these examples of egregious spending, benefits that people in the private sector do not even have, people in my district cannot even relate to these issues of paying people to move, at the exorbitant amount of money. Do you look at this at any point, as the Inspector General, and say there is an issue with confidence here with these senior executives?    And I guess to my other colleagues' point, you know whether this is nationwide or not, I would have to suspect based on just the data that we have seen in the three years we have been here, this is just the same old, same old, status quo behavior. There has not been a whole lot of shake down when it comes to what kind of federal benefits are given to these senior executives in the VA. Do you see a confidence issue here as you look at these, at the tangible data that you have?</t>
   </si>
   <si>
@@ -361,6 +415,12 @@
     <t>412214</t>
   </si>
   <si>
+    <t>Walz</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Mr. Chairman. Commander Barnett, I would like to thank you for being here and let you know your team here in Washington is doing a fabulous job. And we certainly appreciate it. And my 2016 dues are on the way, so that email you sent. So you do a good job of reminding me, so we will get them.    But Ms. Halliday, nice to see you again as always. And I appreciate your time. And I want to thank the chairman and the ranking member for I think once again elevating this committee above the partisan politics, for bringing it to the point of trying to improve the care for veterans.    I also think it is noted that together we are doing what we are supposed to do. Reports are being done. We are doing our oversight. Changes are being made. An Under Secretary is no longer an Under Secretary. And I certainly cannot say if it was in direct result of this, but I think people can draw their conclusions. I also would say that Deputy Secretary Gibson's willingness to come here at every case, and his volunteering to come here, and I think the chairman was very clear and sufficiently stated why that was probably not the right case here because he has got a job to do. And I am grateful that I think my colleagues here have both, did the accountability piece, the subpoenas were correct, we have created space, we let Deputy Secretary Gibson do his work, and we will have some answers by November 2nd.    So I kind of want to, this is taking care of it. There are some good questions being brought up. The ranking member brought up a great point about across the board on this issue, which I think is very important to look at. I want to ask more specifically about the role of the IG and this committee stepping up to do its oversight responsibility.    I do think it should be noted we are approaching 700 days without someone in the top job at the VA Inspector General. That in itself is inexplicable to me. With that being said, the broader issue of the IG, the IG's role and this committee's role of getting aggressive to do what we are doing today, and I am proud of that, I want to ask a couple of specifics on this. How many investigations has your office conducted on personnel issues at VBA? That is an off the--to get back to us? Or----</t>
   </si>
   <si>
@@ -412,6 +472,12 @@
     <t>412271</t>
   </si>
   <si>
+    <t>Coffman</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Coffman. Yes.</t>
   </si>
   <si>
@@ -434,6 +500,12 @@
   </si>
   <si>
     <t>412651</t>
+  </si>
+  <si>
+    <t>Costello</t>
+  </si>
+  <si>
+    <t>Ryan</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Mr. Chairman. At the outset I would like to pick up on the comments that my colleagues Mr. Coffman and Ms. Titus made relating to some of the gaming of compensation within the VA. It almost seems like friends are rewarding friends rather than focusing on reforming the VA. And so I would just reiterate that I think that we really need to get to the bottom of how pervasive that may be in the VA. But that is something obviously I am sure all of us as members will discuss a little bit more.    I also want to commend you for your continued work in providing accountability and shining a light on the abuses there. Typically this committee will have witnesses before them that we can ask questions who either were culpable or who can actually speak to how they are either reforming the challenges or what mistakes were made along the way. But today we do not have that, we just have you. So I do not, I am sure it is a little bit odd that you are here delivering bad news, we are as outraged as anyone, but we do not have anyone really to direct that outrage to.    Let me start with a couple of really fact specific questions just for the record. First, with respect to Philadelphia and Ms. Rubens, as well as Ms. Graves and St. Paul, any evidence that family considerations were part of the reason why they wanted to relocate to those facilities?</t>
@@ -830,7 +902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,7 +910,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,3197 +932,3731 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>49</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>49</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G36" t="s">
+        <v>49</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G38" t="s">
+        <v>49</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G40" t="s">
+        <v>49</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G42" t="s">
+        <v>49</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G46" t="s">
+        <v>49</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G48" t="s">
+        <v>49</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G51" t="s">
+        <v>73</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G53" t="s">
+        <v>73</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G55" t="s">
+        <v>73</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G57" t="s">
+        <v>73</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G59" t="s">
+        <v>84</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G61" t="s">
+        <v>84</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>73</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G63" t="s">
+        <v>84</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G65" t="s">
+        <v>84</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G67" t="s">
+        <v>95</v>
+      </c>
       <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G69" t="s">
+        <v>95</v>
+      </c>
       <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G71" t="s">
+        <v>95</v>
+      </c>
       <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>82</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G73" t="s">
+        <v>95</v>
+      </c>
       <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>82</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G75" t="s">
+        <v>95</v>
+      </c>
       <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G77" t="s">
+        <v>95</v>
+      </c>
       <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>82</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G79" t="s">
+        <v>95</v>
+      </c>
       <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>82</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G81" t="s">
+        <v>95</v>
+      </c>
       <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>82</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G83" t="s">
+        <v>95</v>
+      </c>
       <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>82</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G85" t="s">
+        <v>95</v>
+      </c>
       <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G87" t="s">
+        <v>95</v>
+      </c>
       <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>104</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G88" t="s">
+        <v>119</v>
+      </c>
       <c r="H88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G89" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>104</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G90" t="s">
+        <v>119</v>
+      </c>
       <c r="H90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G91" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>104</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G92" t="s">
+        <v>119</v>
+      </c>
       <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>110</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G93" t="s">
+        <v>127</v>
+      </c>
       <c r="H93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G94" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>110</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G95" t="s">
+        <v>127</v>
+      </c>
       <c r="H95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>114</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G96" t="s">
+        <v>133</v>
+      </c>
       <c r="H96" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>114</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G98" t="s">
+        <v>133</v>
+      </c>
       <c r="H98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I98" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>114</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G100" t="s">
+        <v>133</v>
+      </c>
       <c r="H100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>114</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G102" t="s">
+        <v>133</v>
+      </c>
       <c r="H102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I102" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>114</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G104" t="s">
+        <v>133</v>
+      </c>
       <c r="H104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I104" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G105" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>114</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G106" t="s">
+        <v>133</v>
+      </c>
       <c r="H106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I106" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G107" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>114</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G108" t="s">
+        <v>133</v>
+      </c>
       <c r="H108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I108" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G109" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>114</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G110" t="s">
+        <v>133</v>
+      </c>
       <c r="H110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I110" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G111" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>131</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G112" t="s">
+        <v>152</v>
+      </c>
       <c r="H112" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I112" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G113" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>131</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G114" t="s">
+        <v>152</v>
+      </c>
       <c r="H114" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I114" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G115" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>131</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G116" t="s">
+        <v>152</v>
+      </c>
       <c r="H116" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I116" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G117" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>131</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G118" t="s">
+        <v>152</v>
+      </c>
       <c r="H118" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I118" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>139</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G119" t="s">
+        <v>162</v>
+      </c>
       <c r="H119" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I119" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G120" t="s">
+        <v>18</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>139</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G121" t="s">
+        <v>162</v>
+      </c>
       <c r="H121" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I121" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G122" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>139</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G123" t="s">
+        <v>162</v>
+      </c>
       <c r="H123" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I123" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G124" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>139</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G125" t="s">
+        <v>162</v>
+      </c>
       <c r="H125" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I125" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G126" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>139</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G127" t="s">
+        <v>162</v>
+      </c>
       <c r="H127" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I127" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G128" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>139</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G129" t="s">
+        <v>162</v>
+      </c>
       <c r="H129" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I129" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>139</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G131" t="s">
+        <v>162</v>
+      </c>
       <c r="H131" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I131" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>139</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="G133" t="s">
+        <v>162</v>
+      </c>
       <c r="H133" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I133" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>155</v>
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98693.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98693.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400048</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Brown</t>
   </si>
   <si>
@@ -113,6 +119,9 @@
   </si>
   <si>
     <t>412191</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Lamborn</t>
@@ -902,7 +911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,7 +919,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,3728 +944,3996 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G53" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I53" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I61" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G67" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="H67" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G69" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I69" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G71" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G73" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G75" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G77" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G79" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="H79" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G81" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="H81" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s">
-        <v>18</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G83" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="H83" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G85" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="H85" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G87" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="H87" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I87" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G88" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="H88" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" t="s">
-        <v>18</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G90" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="H90" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I90" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" t="s">
-        <v>18</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G92" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G93" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="H93" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I93" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s">
-        <v>18</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G95" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="H95" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I95" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G96" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="H96" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I96" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" t="s">
-        <v>18</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G98" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="H98" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I98" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" t="s">
-        <v>18</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G100" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="H100" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I100" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" t="s">
-        <v>18</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G102" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="H102" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I102" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" t="s">
-        <v>18</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G104" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="H104" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I104" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
-      </c>
-      <c r="G105" t="s">
-        <v>18</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G106" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I106" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" t="s">
-        <v>18</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G108" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="H108" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I108" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" t="s">
-        <v>18</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G110" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I110" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" t="s">
-        <v>18</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>20</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G112" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="H112" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I112" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J112" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" t="s">
-        <v>18</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>20</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G114" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="H114" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I114" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="J114" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
-      </c>
-      <c r="G115" t="s">
-        <v>18</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>20</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G116" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="H116" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I116" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J116" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" t="s">
-        <v>18</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>20</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G118" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="H118" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I118" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J118" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G119" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="H119" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I119" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J119" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
-      </c>
-      <c r="G120" t="s">
-        <v>18</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>20</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G121" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="H121" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I121" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="J121" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
-      </c>
-      <c r="G122" t="s">
-        <v>18</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>20</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G123" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="H123" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I123" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J123" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
-      </c>
-      <c r="G124" t="s">
-        <v>18</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G125" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="H125" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I125" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J125" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
-      </c>
-      <c r="G126" t="s">
-        <v>18</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>20</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G127" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="H127" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I127" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J127" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" t="s">
-        <v>18</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>20</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G129" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="H129" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I129" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J129" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
-      </c>
-      <c r="G130" t="s">
-        <v>18</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>20</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G131" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="H131" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I131" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J131" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" t="s">
-        <v>18</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G133" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="H133" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I133" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J133" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>179</v>
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
